--- a/StructureDefinition-us-core-medication-adherence.xlsx
+++ b/StructureDefinition-us-core-medication-adherence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-23</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -213,9 +213,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>(USCDI) Code indicating whether the medication is or is not being consumed or administered</t>
-  </si>
-  <si>
     <t>Code indicating whether the medication is or is not being consumed or administered</t>
   </si>
   <si>
@@ -307,7 +304,7 @@
     <t>dateAsserted</t>
   </si>
   <si>
-    <t>(USCDI) When the medication adherence was asserted</t>
+    <t>When the medication adherence was asserted</t>
   </si>
   <si>
     <t>When the medication adherence was asserted by the information source</t>
@@ -335,7 +332,7 @@
     <t>informationSource</t>
   </si>
   <si>
-    <t>(USCDI) Who provided the information about the medication adherence</t>
+    <t>Who provided the information about the medication adherence</t>
   </si>
   <si>
     <t>The person or organization that provided the information about the medication adherence</t>
@@ -1079,7 +1076,7 @@
         <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1150,10 +1147,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1253,14 +1250,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1282,13 +1279,13 @@
         <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1358,10 +1355,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1384,16 +1381,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1443,30 +1440,30 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1489,13 +1486,13 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1522,31 +1519,31 @@
         <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="Y8" t="s" s="2">
+      <c r="Z8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="Z8" t="s" s="2">
+      <c r="AA8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>40</v>
@@ -1558,21 +1555,21 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>39</v>
@@ -1597,10 +1594,10 @@
         <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1671,10 +1668,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1774,14 +1771,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1803,13 +1800,13 @@
         <v>54</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -1879,10 +1876,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1905,16 +1902,16 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -1922,7 +1919,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>39</v>
@@ -1964,30 +1961,30 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2010,13 +2007,13 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2067,7 +2064,7 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>40</v>
@@ -2079,21 +2076,21 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>39</v>
@@ -2118,10 +2115,10 @@
         <v>54</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2192,10 +2189,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2295,14 +2292,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2324,13 +2321,13 @@
         <v>54</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2400,10 +2397,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2426,16 +2423,16 @@
         <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2443,7 +2440,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>39</v>
@@ -2485,30 +2482,30 @@
         <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2531,13 +2528,13 @@
         <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2588,7 +2585,7 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>40</v>
@@ -2600,18 +2597,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2634,16 +2631,16 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2651,7 +2648,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>39</v>
@@ -2693,30 +2690,30 @@
         <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2739,13 +2736,13 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2796,7 +2793,7 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>40</v>
@@ -2808,10 +2805,10 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-us-core-medication-adherence.xlsx
+++ b/StructureDefinition-us-core-medication-adherence.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-10-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-us-core-medication-adherence.xlsx
+++ b/StructureDefinition-us-core-medication-adherence.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12</t>
+    <t>2023-10-17</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A MedicationRequest extension representing whether the medication is or is not being consumed or administered.</t>
+    <t>A MedicationRequest extension representing reported adherence to prescribed medication instructions.  In other words, whether a medication was consumed according to instructions.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -148,7 +148,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the medication is or is not being consumed or administered</t>
+    <t>Reported adherence to prescribed medication instructions.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -184,6 +184,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -213,7 +216,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Code indicating whether the medication is or is not being consumed or administered</t>
+    <t>Medication adherence code</t>
+  </si>
+  <si>
+    <t>Code stating whether the patient is consuming or being administered the medication has according to instructions.  For example, the patient in not taking the medication as prescribed, or the patient is taking the medication as prescribed.</t>
   </si>
   <si>
     <t>Extension.extension:medicationAdherence.id</t>
@@ -285,10 +291,10 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Medication Adherence Codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core//ValueSet/medication-adherence</t>
+    <t>This set of values contains terms representing whether a medication has been consumed according to instructions.</t>
+  </si>
+  <si>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.59</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -352,9 +358,6 @@
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
-  </si>
-  <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/us-core-medicationrequest-compliance-extension</t>
   </si>
   <si>
     <t>base64Binary
@@ -716,8 +719,8 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="27.7734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -950,7 +953,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>41</v>
@@ -965,13 +968,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1010,19 +1013,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -1042,13 +1045,13 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>53</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>39</v>
@@ -1061,7 +1064,7 @@
         <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>39</v>
@@ -1070,13 +1073,13 @@
         <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1127,7 +1130,7 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>40</v>
@@ -1147,10 +1150,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1250,14 +1253,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1276,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1323,19 +1326,19 @@
         <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>40</v>
@@ -1355,10 +1358,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1381,16 +1384,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1398,7 +1401,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>39</v>
@@ -1440,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>47</v>
@@ -1455,15 +1458,15 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1486,13 +1489,13 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1519,13 +1522,13 @@
         <v>39</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>39</v>
@@ -1543,7 +1546,7 @@
         <v>39</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>40</v>
@@ -1555,34 +1558,34 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>39</v>
@@ -1591,13 +1594,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1648,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>40</v>
@@ -1668,10 +1671,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1771,14 +1774,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1797,16 +1800,16 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -1844,19 +1847,19 @@
         <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>40</v>
@@ -1876,10 +1879,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1902,16 +1905,16 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -1919,7 +1922,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>39</v>
@@ -1961,7 +1964,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>47</v>
@@ -1976,15 +1979,15 @@
         <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2007,13 +2010,13 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2064,7 +2067,7 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>40</v>
@@ -2076,21 +2079,21 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>39</v>
@@ -2103,7 +2106,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>39</v>
@@ -2112,13 +2115,13 @@
         <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2169,7 +2172,7 @@
         <v>39</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>40</v>
@@ -2189,10 +2192,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2292,14 +2295,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2318,16 +2321,16 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2365,19 +2368,19 @@
         <v>39</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>40</v>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2423,16 +2426,16 @@
         <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2440,7 +2443,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>39</v>
@@ -2482,7 +2485,7 @@
         <v>39</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>47</v>
@@ -2497,15 +2500,15 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2528,13 +2531,13 @@
         <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2585,7 +2588,7 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>40</v>
@@ -2597,18 +2600,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2631,16 +2634,16 @@
         <v>39</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2648,7 +2651,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>39</v>
@@ -2690,7 +2693,7 @@
         <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>47</v>
@@ -2705,15 +2708,15 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2736,13 +2739,13 @@
         <v>39</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2793,7 +2796,7 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>40</v>
@@ -2805,10 +2808,10 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-us-core-medication-adherence.xlsx
+++ b/StructureDefinition-us-core-medication-adherence.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A MedicationRequest extension representing reported adherence to prescribed medication instructions.  In other words, whether a medication was consumed according to instructions.</t>
+    <t>The Medication Adherence Extension is a statement of whether a medication has been consumed according to instructions for discharge, community-prescribed, and self-prescribed medications. This extension is not intended to track adherence to the Inpatient Medication Administration Record (MAR). In FHIR, [MedicationAdministration](https://hl7.org/fhir/R4/medicationadministration.html) is typically used to monitor compliance with the MAR.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -294,7 +294,7 @@
     <t>This set of values contains terms representing whether a medication has been consumed according to instructions.</t>
   </si>
   <si>
-    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1099.59</t>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1240.8</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -720,7 +720,7 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="107.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.8515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
